--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Adcy1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.18582738541722</v>
+        <v>0.007396666666666667</v>
       </c>
       <c r="N2">
-        <v>0.18582738541722</v>
+        <v>0.02219</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.03674254717418517</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.05411957523816028</v>
       </c>
       <c r="Q2">
-        <v>36.20517229226321</v>
+        <v>1.442936100771667</v>
       </c>
       <c r="R2">
-        <v>36.20517229226321</v>
+        <v>8.65761660463</v>
       </c>
       <c r="S2">
-        <v>0.2678876068064914</v>
+        <v>0.009702257299684925</v>
       </c>
       <c r="T2">
-        <v>0.2678876068064914</v>
+        <v>0.01072815729646131</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.18582738541722</v>
+        <v>0.193914</v>
       </c>
       <c r="N3">
-        <v>0.18582738541722</v>
+        <v>0.387828</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9632574528258149</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9458804247618398</v>
       </c>
       <c r="Q3">
-        <v>10.92720881711677</v>
+        <v>37.828595454489</v>
       </c>
       <c r="R3">
-        <v>10.92720881711677</v>
+        <v>151.314381817956</v>
       </c>
       <c r="S3">
-        <v>0.08085208918389093</v>
+        <v>0.2543582949992477</v>
       </c>
       <c r="T3">
-        <v>0.08085208918389093</v>
+        <v>0.1875024690388462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H4">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I4">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J4">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.18582738541722</v>
+        <v>0.007396666666666667</v>
       </c>
       <c r="N4">
-        <v>0.18582738541722</v>
+        <v>0.02219</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.03674254717418517</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.05411957523816028</v>
       </c>
       <c r="Q4">
-        <v>26.52808053514248</v>
+        <v>0.4616105988588889</v>
       </c>
       <c r="R4">
-        <v>26.52808053514248</v>
+        <v>4.15449538973</v>
       </c>
       <c r="S4">
-        <v>0.1962853249354044</v>
+        <v>0.003103855257343303</v>
       </c>
       <c r="T4">
-        <v>0.1962853249354044</v>
+        <v>0.005148077359375234</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H5">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J5">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.18582738541722</v>
+        <v>0.193914</v>
       </c>
       <c r="N5">
-        <v>0.18582738541722</v>
+        <v>0.387828</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.9632574528258149</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.9458804247618398</v>
       </c>
       <c r="Q5">
-        <v>26.15603514510122</v>
+        <v>12.101769851346</v>
       </c>
       <c r="R5">
-        <v>26.15603514510122</v>
+        <v>72.61061910807601</v>
       </c>
       <c r="S5">
-        <v>0.1935325041959534</v>
+        <v>0.08137192271822478</v>
       </c>
       <c r="T5">
-        <v>0.1935325041959534</v>
+        <v>0.08997604984820992</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H6">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I6">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J6">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.18582738541722</v>
+        <v>0.007396666666666667</v>
       </c>
       <c r="N6">
-        <v>0.18582738541722</v>
+        <v>0.02219</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.03674254717418517</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.05411957523816028</v>
       </c>
       <c r="Q6">
-        <v>25.4954853441285</v>
+        <v>1.056703416828889</v>
       </c>
       <c r="R6">
-        <v>25.4954853441285</v>
+        <v>9.51033075146</v>
       </c>
       <c r="S6">
-        <v>0.1886449951977736</v>
+        <v>0.007105240789281806</v>
       </c>
       <c r="T6">
-        <v>0.1886449951977736</v>
+        <v>0.01178480509156207</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.9449598765086</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H7">
-        <v>52.9449598765086</v>
+        <v>428.586334</v>
       </c>
       <c r="I7">
-        <v>0.07279747968048636</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J7">
-        <v>0.07279747968048636</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.18582738541722</v>
+        <v>0.193914</v>
       </c>
       <c r="N7">
-        <v>0.18582738541722</v>
+        <v>0.387828</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.9632574528258149</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.9458804247618398</v>
       </c>
       <c r="Q7">
-        <v>9.838623464871212</v>
+        <v>27.702963457092</v>
       </c>
       <c r="R7">
-        <v>9.838623464871212</v>
+        <v>166.217780742552</v>
       </c>
       <c r="S7">
-        <v>0.07279747968048636</v>
+        <v>0.1862738615249381</v>
       </c>
       <c r="T7">
-        <v>0.07279747968048636</v>
+        <v>0.2059701392091183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H8">
+        <v>424.850525</v>
+      </c>
+      <c r="I8">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J8">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.007396666666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.02219</v>
+      </c>
+      <c r="O8">
+        <v>0.03674254717418517</v>
+      </c>
+      <c r="P8">
+        <v>0.05411957523816028</v>
+      </c>
+      <c r="Q8">
+        <v>1.047492572194444</v>
+      </c>
+      <c r="R8">
+        <v>9.427433149750001</v>
+      </c>
+      <c r="S8">
+        <v>0.007043307357480487</v>
+      </c>
+      <c r="T8">
+        <v>0.0116820818420515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H9">
+        <v>424.850525</v>
+      </c>
+      <c r="I9">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J9">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.193914</v>
+      </c>
+      <c r="N9">
+        <v>0.387828</v>
+      </c>
+      <c r="O9">
+        <v>0.9632574528258149</v>
+      </c>
+      <c r="P9">
+        <v>0.9458804247618398</v>
+      </c>
+      <c r="Q9">
+        <v>27.46148823495</v>
+      </c>
+      <c r="R9">
+        <v>164.7689294097</v>
+      </c>
+      <c r="S9">
+        <v>0.1846501896690137</v>
+      </c>
+      <c r="T9">
+        <v>0.2041747830842339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>143.783834</v>
+      </c>
+      <c r="H10">
+        <v>431.351502</v>
+      </c>
+      <c r="I10">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J10">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.007396666666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.02219</v>
+      </c>
+      <c r="O10">
+        <v>0.03674254717418517</v>
+      </c>
+      <c r="P10">
+        <v>0.05411957523816028</v>
+      </c>
+      <c r="Q10">
+        <v>1.063521092153333</v>
+      </c>
+      <c r="R10">
+        <v>9.57168982938</v>
+      </c>
+      <c r="S10">
+        <v>0.007151082625346548</v>
+      </c>
+      <c r="T10">
+        <v>0.01186083870098982</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>143.783834</v>
+      </c>
+      <c r="H11">
+        <v>431.351502</v>
+      </c>
+      <c r="I11">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J11">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.193914</v>
+      </c>
+      <c r="N11">
+        <v>0.387828</v>
+      </c>
+      <c r="O11">
+        <v>0.9632574528258149</v>
+      </c>
+      <c r="P11">
+        <v>0.9458804247618398</v>
+      </c>
+      <c r="Q11">
+        <v>27.881698386276</v>
+      </c>
+      <c r="R11">
+        <v>167.290190317656</v>
+      </c>
+      <c r="S11">
+        <v>0.1874756696094796</v>
+      </c>
+      <c r="T11">
+        <v>0.2072990244131356</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H12">
+        <v>106.034229</v>
+      </c>
+      <c r="I12">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J12">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.007396666666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.02219</v>
+      </c>
+      <c r="O12">
+        <v>0.03674254717418517</v>
+      </c>
+      <c r="P12">
+        <v>0.05411957523816028</v>
+      </c>
+      <c r="Q12">
+        <v>0.3921499235850001</v>
+      </c>
+      <c r="R12">
+        <v>2.35289954151</v>
+      </c>
+      <c r="S12">
+        <v>0.002636803845048106</v>
+      </c>
+      <c r="T12">
+        <v>0.002915614947720333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H13">
+        <v>106.034229</v>
+      </c>
+      <c r="I13">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J13">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.193914</v>
+      </c>
+      <c r="N13">
+        <v>0.387828</v>
+      </c>
+      <c r="O13">
+        <v>0.9632574528258149</v>
+      </c>
+      <c r="P13">
+        <v>0.9458804247618398</v>
+      </c>
+      <c r="Q13">
+        <v>10.280760741153</v>
+      </c>
+      <c r="R13">
+        <v>41.123042964612</v>
+      </c>
+      <c r="S13">
+        <v>0.069127514304911</v>
+      </c>
+      <c r="T13">
+        <v>0.05095795916829569</v>
       </c>
     </row>
   </sheetData>
